--- a/Running projects/Meezan Bank Head Office/PO/015- Purchase order- for pipes (saeed) PO to pioneer steel.xlsx
+++ b/Running projects/Meezan Bank Head Office/PO/015- Purchase order- for pipes (saeed) PO to pioneer steel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2727B423-CB23-4700-891D-816EB7522EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756BD7F1-9BD3-4E5B-8FC8-EAABAEEFC104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$56</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$26:$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>S No.</t>
   </si>
@@ -120,19 +120,16 @@
     <t>M/S Delta Industrial Supplies</t>
   </si>
   <si>
-    <t>M.S. SEAMLESS PIPE SCH-40 SIZE  4"Ø</t>
-  </si>
-  <si>
-    <t>M.S. SEAMLESS PIPE SCH-40 SIZE  2-1/2"Ø</t>
-  </si>
-  <si>
-    <t>PO # GSK-1737</t>
-  </si>
-  <si>
     <t>PURCHASE ORDER</t>
   </si>
   <si>
     <t>Supply of Pipes for the M.S Pipe (Meezan Bank Head Office Karachi)</t>
+  </si>
+  <si>
+    <t>M.S. SEAMLESS PIPE SCH-40 SIZE  3"Ø</t>
+  </si>
+  <si>
+    <t>PO # GSK-1738</t>
   </si>
 </sst>
 </file>
@@ -455,6 +452,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -484,27 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -530,13 +527,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>27091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -659,13 +656,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>73022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1039,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:I52"/>
+  <dimension ref="A10:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1063,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="F14" s="9">
-        <v>45506</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1076,28 +1073,28 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
@@ -1108,28 +1105,28 @@
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="A20" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
+      <c r="A25" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -1170,231 +1167,208 @@
         <v>1</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" s="5">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="11">
-        <v>1800</v>
+        <v>1270</v>
       </c>
       <c r="F28" s="25">
-        <f t="shared" ref="F28:F29" si="0">E28*C28</f>
-        <v>288000</v>
+        <f t="shared" ref="F28" si="0">E28*C28</f>
+        <v>25400</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>2</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="5">
-        <v>40</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="11">
-        <v>950</v>
-      </c>
-      <c r="F29" s="25">
-        <f t="shared" si="0"/>
-        <v>38000</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="39" t="s">
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="20">
-        <f>SUM(F27:F29)</f>
-        <v>326000</v>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="20">
+        <f>SUM(F27:F28)</f>
+        <v>25400</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="17.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="21">
+        <f>F29*2%</f>
+        <v>508</v>
       </c>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" ht="17.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="21">
-        <f>F30*2%</f>
-        <v>6520</v>
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="22">
+        <f>F29-F30</f>
+        <v>24892</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="22">
-        <f>F30-F31</f>
-        <v>319480</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="32" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="34" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="35" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
+      <c r="A35" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
     </row>
     <row r="36" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-    </row>
-    <row r="43" spans="1:6" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:6" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="48">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-    </row>
-    <row r="48" spans="1:6" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="52" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:6" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+    </row>
+    <row r="48" spans="1:6" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="31"/>
+      <c r="C48" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+    </row>
+    <row r="49" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="31"/>
-      <c r="C49" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-    </row>
-    <row r="50" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+    </row>
+    <row r="50" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="31"/>
-      <c r="C50" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-    </row>
-    <row r="51" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-    </row>
-    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+    </row>
+    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="A36:F37"/>
+    <mergeCell ref="A35:F36"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="B43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C47:F47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
